--- a/SP_Sklad/Rep/RepOrdKAID.xlsx
+++ b/SP_Sklad/Rep/RepOrdKAID.xlsx
@@ -9,7 +9,7 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="MatList">Лист1!$A$11:$P$15</definedName>
+    <definedName name="MatList">Лист1!$A$11:$P$14</definedName>
     <definedName name="MoveRange">Лист1!#REF!</definedName>
     <definedName name="OrdRange">Лист1!#REF!</definedName>
     <definedName name="range1">Лист1!#REF!</definedName>
@@ -41,6 +41,9 @@
     <t>Контрагент:</t>
   </si>
   <si>
+    <t>ФОП Test А.А.</t>
+  </si>
+  <si>
     <t>Код</t>
   </si>
   <si>
@@ -74,34 +77,28 @@
     <t>Дата</t>
   </si>
   <si>
-    <t>110</t>
-  </si>
-  <si>
-    <t>Сало хребтове</t>
+    <t>34</t>
+  </si>
+  <si>
+    <t>Софієвські 1.с". Сардельки</t>
   </si>
   <si>
     <t>кг.</t>
   </si>
   <si>
-    <t>ФОП Губрієнко( Юра) м.Київ Марка Вовчка(Подольська база)</t>
-  </si>
-  <si>
-    <t>117</t>
-  </si>
-  <si>
-    <t>Мясо конини вищого сорту</t>
-  </si>
-  <si>
-    <t>113</t>
-  </si>
-  <si>
-    <t>Емульсія свинної шкури</t>
-  </si>
-  <si>
-    <t>119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Жилка </t>
+    <t>Дорогин А.</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Яловичина  1 сотру</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>Яловичина 2с.</t>
   </si>
   <si>
     <t>Всього по відомості:</t>
@@ -1050,7 +1047,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" ht="5.25" customHeight="1">
@@ -1059,32 +1056,32 @@
     </row>
     <row r="8" ht="26.25" customHeight="1">
       <c r="B8" s="11" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D8" s="13"/>
       <c r="E8" s="13"/>
       <c r="F8" s="14"/>
       <c r="G8" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I8" s="15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J8" s="16"/>
       <c r="K8" s="15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L8" s="17"/>
       <c r="M8" s="17"/>
       <c r="N8" s="16"/>
       <c r="O8" s="15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="P8" s="16"/>
     </row>
@@ -1097,28 +1094,28 @@
       <c r="G9" s="18"/>
       <c r="H9" s="18"/>
       <c r="I9" s="22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J9" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="K9" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="L9" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="M9" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="K9" s="22" t="s">
+      <c r="N9" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="L9" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="M9" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="N9" s="22" t="s">
+      <c r="O9" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="O9" s="22" t="s">
-        <v>13</v>
-      </c>
       <c r="P9" s="22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" ht="13.5" customHeight="1">
@@ -1162,204 +1159,162 @@
     </row>
     <row r="11" ht="12.75" customHeight="1">
       <c r="B11" s="27" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D11" s="29"/>
       <c r="E11" s="29"/>
       <c r="F11" s="30"/>
       <c r="G11" s="31" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H11" s="32" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="I11" s="33">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="J11" s="33">
-        <v>4</v>
+        <v>1200</v>
       </c>
       <c r="K11" s="33" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L11" s="34">
-        <v>42624.50049471065</v>
+        <v>42634.410999884254</v>
       </c>
       <c r="M11" s="33">
-        <v>0.5</v>
+        <v>100</v>
       </c>
       <c r="N11" s="33">
-        <v>2</v>
+        <v>1200</v>
       </c>
       <c r="O11" s="33">
         <f>M11-I11</f>
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="P11" s="33">
         <f>N11-J11</f>
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" ht="12.75" customHeight="1">
       <c r="B12" s="27" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D12" s="29"/>
       <c r="E12" s="29"/>
       <c r="F12" s="30"/>
       <c r="G12" s="31" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H12" s="32" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="I12" s="33">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J12" s="33">
-        <v>5</v>
+        <v>130</v>
       </c>
       <c r="K12" s="33" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L12" s="34">
-        <v>42624.50049471065</v>
+        <v>42634.410999884254</v>
       </c>
       <c r="M12" s="33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N12" s="33">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O12" s="33">
         <f>M12-I12</f>
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="P12" s="33">
         <f>N12-J12</f>
-        <v>0</v>
+        <v>-130</v>
       </c>
     </row>
     <row r="13" ht="12.75" customHeight="1">
       <c r="B13" s="27" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" s="29"/>
       <c r="E13" s="29"/>
       <c r="F13" s="30"/>
       <c r="G13" s="31" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H13" s="32" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="I13" s="33">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="J13" s="33">
-        <v>6</v>
+        <v>19.920000000000002</v>
       </c>
       <c r="K13" s="33" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L13" s="34">
-        <v>42624.50049471065</v>
+        <v>42634.410999884254</v>
       </c>
       <c r="M13" s="33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N13" s="33">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="O13" s="33">
         <f>M13-I13</f>
-        <v>0</v>
+        <v>-15</v>
       </c>
       <c r="P13" s="33">
         <f>N13-J13</f>
-        <v>0</v>
+        <v>-19.920000000000002</v>
       </c>
     </row>
-    <row r="14" ht="12.75" customHeight="1">
-      <c r="B14" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="28" t="s">
+    <row r="14" s="1" customFormat="1" ht="12.75" customHeight="1">
+      <c r="B14" s="35"/>
+      <c r="C14" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="H14" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="I14" s="33">
-        <v>1</v>
-      </c>
-      <c r="J14" s="33">
-        <v>7</v>
-      </c>
-      <c r="K14" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="L14" s="34">
-        <v>42624.50049471065</v>
-      </c>
-      <c r="M14" s="33">
-        <v>1</v>
-      </c>
-      <c r="N14" s="33">
-        <v>7</v>
-      </c>
-      <c r="O14" s="33">
-        <f>M14-I14</f>
-        <v>0</v>
-      </c>
-      <c r="P14" s="33">
-        <f>N14-J14</f>
-        <v>0</v>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="38"/>
+      <c r="J14" s="39">
+        <f>SUM(J11:J13)</f>
+        <v>1349.9200000000001</v>
+      </c>
+      <c r="K14" s="40"/>
+      <c r="L14" s="40"/>
+      <c r="M14" s="40"/>
+      <c r="N14" s="39">
+        <f>SUM(N11:N13)</f>
+        <v>1200</v>
+      </c>
+      <c r="O14" s="40"/>
+      <c r="P14" s="41">
+        <f>SUM(P11:P13)</f>
+        <v>-149.92000000000002</v>
       </c>
     </row>
-    <row r="15" s="1" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B15" s="35"/>
-      <c r="C15" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="38"/>
-      <c r="I15" s="38"/>
-      <c r="J15" s="39">
-        <f>SUM(J11:J14)</f>
-        <v>22</v>
-      </c>
-      <c r="K15" s="40"/>
-      <c r="L15" s="40"/>
-      <c r="M15" s="40"/>
-      <c r="N15" s="39">
-        <f>SUM(N11:N14)</f>
-        <v>20</v>
-      </c>
-      <c r="O15" s="40"/>
-      <c r="P15" s="41">
-        <f>SUM(P11:P14)</f>
-        <v>-2</v>
-      </c>
-    </row>
+    <row r="15" ht="12.75" customHeight="1"/>
     <row r="16" ht="12.75" customHeight="1"/>
     <row r="17" ht="12.75" customHeight="1"/>
     <row r="18" ht="12.75" customHeight="1"/>
@@ -1425,9 +1380,8 @@
     <row r="78" ht="12.75" customHeight="1"/>
     <row r="79" ht="12.75" customHeight="1"/>
     <row r="80" ht="12.75" customHeight="1"/>
-    <row r="81" ht="12.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="12">
     <mergeCell ref="O8:P8"/>
     <mergeCell ref="K8:N8"/>
     <mergeCell ref="B1:O1"/>
@@ -1440,7 +1394,6 @@
     <mergeCell ref="C11:F11"/>
     <mergeCell ref="C12:F12"/>
     <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C14:F14"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.1965278" right="0.1965278" top="0.1965278" bottom="0.39375" header="0.5118055" footer="0.1965278"/>
